--- a/List_Case/removeInstances/removeInstance_diagram.xlsx
+++ b/List_Case/removeInstances/removeInstance_diagram.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Instances</t>
   </si>
@@ -46,7 +46,7 @@
     <t>instances running</t>
   </si>
   <si>
-    <t>instances stopped</t>
+    <t>instances wait</t>
   </si>
   <si>
     <r>
@@ -67,8 +67,90 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>- Instances has define the schedule.
-- Instances has not define the schedule.</t>
+      <t xml:space="preserve">- Instances has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>define the schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+  Job has define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances
+- Instances has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>not define the schedule.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  Job has define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
     </r>
   </si>
   <si>
@@ -80,17 +162,142 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>1 Case:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Instances has not define the schedule.</t>
+      <t xml:space="preserve">3 Case:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Instances has define the schedule
+  Job has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">define jobclass.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances
+- Instances has not define the schedule.
+  Job has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">define jobclass.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances
+- Instances has not define the schedule.
+  Job has </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">not define jobclass.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Then remove instances
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remove data into map/list corresponding to instances</t>
     </r>
   </si>
   <si>
@@ -102,6 +309,71 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">2 Case:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Instances has define the schedule.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances
+- Instances has not define the schedule.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>1 Case:</t>
     </r>
     <r>
@@ -112,7 +384,161 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- Instances has define the schedule.</t>
+- Instances has not define the schedule.
+  Job has define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Instances has not define the schedule.
+  Job has not define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Instances has define the schedule.
+  Job has define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 Case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Instances has define the schedule
+  Job has not define jobclass.
+  Then remove instances
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Remove data into map/list corresponding to instances</t>
     </r>
   </si>
 </sst>
@@ -193,24 +619,24 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -521,483 +947,1073 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="7"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="8"/>
-      <c r="C20" s="2" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="8"/>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="F29" s="6" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:15" ht="14.25" customHeight="1">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="F61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
-      <c r="F30" s="6" t="s">
+    <row r="62" spans="2:15">
+      <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G24:L27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="E36:E49"/>
+    <mergeCell ref="G28:O35"/>
+    <mergeCell ref="G36:O49"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:O21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:O27"/>
+    <mergeCell ref="G10:O15"/>
+    <mergeCell ref="G4:O9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G50:O59"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="B4:B27"/>
+    <mergeCell ref="F28:F35"/>
+    <mergeCell ref="F36:F49"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="D36:D49"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="B28:B59"/>
+    <mergeCell ref="E16:E21"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G2:L3"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:L12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:L15"/>
-    <mergeCell ref="G7:L9"/>
-    <mergeCell ref="G4:L6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G16:L19"/>
-    <mergeCell ref="G20:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
